--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0140EC-D20D-4825-9ABD-9E514B123D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF808D78-340F-4F00-8836-8A6E5AF3879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="EmployeeDataBatch16" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,13 +90,13 @@
     <t>Abbel</t>
   </si>
   <si>
-    <t>best789</t>
-  </si>
-  <si>
-    <t>oldest456</t>
-  </si>
-  <si>
-    <t>fastest123</t>
+    <t>fire147</t>
+  </si>
+  <si>
+    <t>water258</t>
+  </si>
+  <si>
+    <t>soil369</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF808D78-340F-4F00-8836-8A6E5AF3879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E77E22-61E7-4297-90A9-C75B54881D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,13 +90,13 @@
     <t>Abbel</t>
   </si>
   <si>
-    <t>fire147</t>
-  </si>
-  <si>
-    <t>water258</t>
-  </si>
-  <si>
     <t>soil369</t>
+  </si>
+  <si>
+    <t>fire963</t>
+  </si>
+  <si>
+    <t>water159</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E77E22-61E7-4297-90A9-C75B54881D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA1AE7-3BCE-4297-82AC-3FBB2A2F445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,13 +90,13 @@
     <t>Abbel</t>
   </si>
   <si>
-    <t>soil369</t>
-  </si>
-  <si>
-    <t>fire963</t>
-  </si>
-  <si>
-    <t>water159</t>
+    <t>cold789</t>
+  </si>
+  <si>
+    <t>hot8945</t>
+  </si>
+  <si>
+    <t>worm357</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA1AE7-3BCE-4297-82AC-3FBB2A2F445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB5E880-3210-484B-8EC7-E30AEEEE30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>C:\Users\magre\Desktop\Batch16.jpg</t>
-  </si>
-  <si>
     <t>Hum@nhrm123</t>
   </si>
   <si>
@@ -90,20 +87,23 @@
     <t>Abbel</t>
   </si>
   <si>
-    <t>cold789</t>
-  </si>
-  <si>
-    <t>hot8945</t>
-  </si>
-  <si>
-    <t>worm357</t>
+    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpg</t>
+  </si>
+  <si>
+    <t>gray000</t>
+  </si>
+  <si>
+    <t>sanny111</t>
+  </si>
+  <si>
+    <t>moon222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +117,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,14 +144,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +434,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -451,7 +442,7 @@
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="4" max="4" width="69.109375" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
@@ -482,71 +473,71 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB5E880-3210-484B-8EC7-E30AEEEE30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0813D5DF-4B48-40E0-91FC-0B36C4555CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>firstName</t>
   </si>
@@ -60,43 +60,31 @@
     <t>Hum@nhrm123</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Aca</t>
-  </si>
-  <si>
-    <t>Ariana</t>
-  </si>
-  <si>
-    <t>Zoia</t>
-  </si>
-  <si>
-    <t>Aaw</t>
-  </si>
-  <si>
-    <t>Ael</t>
-  </si>
-  <si>
-    <t>Caty</t>
-  </si>
-  <si>
-    <t>Abbel</t>
-  </si>
-  <si>
     <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpg</t>
   </si>
   <si>
-    <t>gray000</t>
-  </si>
-  <si>
-    <t>sanny111</t>
-  </si>
-  <si>
-    <t>moon222</t>
+    <t>donc1234</t>
+  </si>
+  <si>
+    <t>donc4564</t>
+  </si>
+  <si>
+    <t>donc7894</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Serg</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Dan</t>
   </si>
 </sst>
 </file>
@@ -434,7 +422,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -473,19 +461,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -496,7 +484,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -505,10 +493,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -519,19 +507,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0813D5DF-4B48-40E0-91FC-0B36C4555CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BFC81C-D454-4DFC-8810-0B56CE6535A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,15 +63,6 @@
     <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpg</t>
   </si>
   <si>
-    <t>donc1234</t>
-  </si>
-  <si>
-    <t>donc4564</t>
-  </si>
-  <si>
-    <t>donc7894</t>
-  </si>
-  <si>
     <t>Ivan</t>
   </si>
   <si>
@@ -85,6 +76,15 @@
   </si>
   <si>
     <t>Dan</t>
+  </si>
+  <si>
+    <t>donc1236</t>
+  </si>
+  <si>
+    <t>donc4566</t>
+  </si>
+  <si>
+    <t>donc7896</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -461,19 +461,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -484,19 +484,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -507,19 +507,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BFC81C-D454-4DFC-8810-0B56CE6535A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC942188-B564-47D3-9D78-9D7C989B5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>firstName</t>
   </si>
@@ -78,13 +78,19 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc1236</t>
-  </si>
-  <si>
-    <t>donc4566</t>
-  </si>
-  <si>
-    <t>donc7896</t>
+    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16_1.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16_2.jpg</t>
+  </si>
+  <si>
+    <t>donc1239</t>
+  </si>
+  <si>
+    <t>donc4569</t>
+  </si>
+  <si>
+    <t>donc7899</t>
   </si>
 </sst>
 </file>
@@ -430,7 +436,7 @@
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="69.109375" customWidth="1"/>
+    <col min="4" max="4" width="72.77734375" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
@@ -473,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -493,10 +499,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -516,10 +522,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC942188-B564-47D3-9D78-9D7C989B5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E723C-2F6E-4665-8ADD-9C6130F422D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16_2.jpg</t>
   </si>
   <si>
-    <t>donc1239</t>
-  </si>
-  <si>
-    <t>donc4569</t>
-  </si>
-  <si>
-    <t>donc7899</t>
+    <t>donc12392</t>
+  </si>
+  <si>
+    <t>donc45692</t>
+  </si>
+  <si>
+    <t>donc78992</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E723C-2F6E-4665-8ADD-9C6130F422D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D4AD94-AFE2-4819-B401-AAD23F909050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16_2.jpg</t>
   </si>
   <si>
-    <t>donc12392</t>
-  </si>
-  <si>
-    <t>donc45692</t>
-  </si>
-  <si>
-    <t>donc78992</t>
+    <t>donc12393</t>
+  </si>
+  <si>
+    <t>donc45693</t>
+  </si>
+  <si>
+    <t>donc78993</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D4AD94-AFE2-4819-B401-AAD23F909050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFBC975-1925-4F2D-8C76-7DEDAC5D2FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,13 +84,13 @@
     <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16_2.jpg</t>
   </si>
   <si>
-    <t>donc12393</t>
-  </si>
-  <si>
-    <t>donc45693</t>
-  </si>
-  <si>
-    <t>donc78993</t>
+    <t>donc12394</t>
+  </si>
+  <si>
+    <t>donc45694</t>
+  </si>
+  <si>
+    <t>donc78994</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFBC975-1925-4F2D-8C76-7DEDAC5D2FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F004A-C230-4E0D-9745-EEB82398F066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>firstName</t>
   </si>
@@ -78,19 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16_1.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16_2.jpg</t>
-  </si>
-  <si>
-    <t>donc12394</t>
-  </si>
-  <si>
-    <t>donc45694</t>
-  </si>
-  <si>
-    <t>donc78994</t>
+    <t>donc12395</t>
+  </si>
+  <si>
+    <t>donc45695</t>
+  </si>
+  <si>
+    <t>donc78995</t>
   </si>
 </sst>
 </file>
@@ -428,7 +422,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -479,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -499,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -522,10 +516,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F004A-C230-4E0D-9745-EEB82398F066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E15BB-0A9D-41B5-AACE-3E422B6F8FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc12395</t>
-  </si>
-  <si>
-    <t>donc45695</t>
-  </si>
-  <si>
-    <t>donc78995</t>
+    <t>donc12397</t>
+  </si>
+  <si>
+    <t>donc45697</t>
+  </si>
+  <si>
+    <t>donc78997</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E15BB-0A9D-41B5-AACE-3E422B6F8FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E63913-8576-45AE-B182-0B8C569927A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc12397</t>
-  </si>
-  <si>
-    <t>donc45697</t>
-  </si>
-  <si>
-    <t>donc78997</t>
+    <t>donc12398</t>
+  </si>
+  <si>
+    <t>donc45698</t>
+  </si>
+  <si>
+    <t>donc78998</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E63913-8576-45AE-B182-0B8C569927A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D4B7A3-D3C2-4A8C-B359-95617494EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17880" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDataBatch16" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc12398</t>
-  </si>
-  <si>
-    <t>donc45698</t>
-  </si>
-  <si>
-    <t>donc78998</t>
+    <t>donc12399</t>
+  </si>
+  <si>
+    <t>donc45699</t>
+  </si>
+  <si>
+    <t>donc78999</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D4B7A3-D3C2-4A8C-B359-95617494EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49A7C6-A133-4EDA-A47A-EED5D7483E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17880" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDataBatch16" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc12399</t>
-  </si>
-  <si>
-    <t>donc45699</t>
-  </si>
-  <si>
-    <t>donc78999</t>
+    <t>donc23991</t>
+  </si>
+  <si>
+    <t>donc56991</t>
+  </si>
+  <si>
+    <t>donc89991</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49A7C6-A133-4EDA-A47A-EED5D7483E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B84541E-8CC7-4D3E-95D0-B3E6739E4CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc23991</t>
-  </si>
-  <si>
-    <t>donc56991</t>
-  </si>
-  <si>
-    <t>donc89991</t>
+    <t>donc23992</t>
+  </si>
+  <si>
+    <t>donc56992</t>
+  </si>
+  <si>
+    <t>donc89992</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B84541E-8CC7-4D3E-95D0-B3E6739E4CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F83D4-5A54-4499-810D-839DCCB12B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc23992</t>
-  </si>
-  <si>
-    <t>donc56992</t>
-  </si>
-  <si>
-    <t>donc89992</t>
+    <t>donc23994</t>
+  </si>
+  <si>
+    <t>donc56994</t>
+  </si>
+  <si>
+    <t>donc89994</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711F83D4-5A54-4499-810D-839DCCB12B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBC6D3C-7A93-4ED5-AE2F-A5FC55C585AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc23994</t>
-  </si>
-  <si>
-    <t>donc56994</t>
-  </si>
-  <si>
-    <t>donc89994</t>
+    <t>donc23995</t>
+  </si>
+  <si>
+    <t>donc56995</t>
+  </si>
+  <si>
+    <t>donc89995</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBC6D3C-7A93-4ED5-AE2F-A5FC55C585AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC9D005-A362-4EFC-B2E8-6FD9635B977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="-12270" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDataBatch16" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc23995</t>
-  </si>
-  <si>
-    <t>donc56995</t>
-  </si>
-  <si>
-    <t>donc89995</t>
+    <t>donc239996</t>
+  </si>
+  <si>
+    <t>donc569996</t>
+  </si>
+  <si>
+    <t>donc899996</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC9D005-A362-4EFC-B2E8-6FD9635B977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA8B12-C04A-451B-A407-0F0540A62858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5805" yWindow="-12270" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc239996</t>
-  </si>
-  <si>
-    <t>donc569996</t>
-  </si>
-  <si>
-    <t>donc899996</t>
+    <t>donc239997</t>
+  </si>
+  <si>
+    <t>donc569997</t>
+  </si>
+  <si>
+    <t>donc899997</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA8B12-C04A-451B-A407-0F0540A62858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A91791-6B6D-453B-9389-404343FD1A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5805" yWindow="-12270" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc239997</t>
-  </si>
-  <si>
-    <t>donc569997</t>
-  </si>
-  <si>
-    <t>donc899997</t>
+    <t>donc239998</t>
+  </si>
+  <si>
+    <t>donc569998</t>
+  </si>
+  <si>
+    <t>donc899998</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A91791-6B6D-453B-9389-404343FD1A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82A96E-92FE-42EE-ABB0-30D9AACDA117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5805" yWindow="-12270" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc239998</t>
-  </si>
-  <si>
-    <t>donc569998</t>
-  </si>
-  <si>
-    <t>donc899998</t>
+    <t>donc239999</t>
+  </si>
+  <si>
+    <t>donc569999</t>
+  </si>
+  <si>
+    <t>donc899999</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82A96E-92FE-42EE-ABB0-30D9AACDA117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4F2714-9342-4679-8EE8-CE1902D6E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5805" yWindow="-12270" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc239999</t>
-  </si>
-  <si>
-    <t>donc569999</t>
-  </si>
-  <si>
-    <t>donc899999</t>
+    <t>donc2399990</t>
+  </si>
+  <si>
+    <t>donc5699990</t>
+  </si>
+  <si>
+    <t>donc8999990</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4F2714-9342-4679-8EE8-CE1902D6E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A213D-A413-4591-9096-E416DD6A5CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="-12270" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="-8625" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDataBatch16" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc2399990</t>
-  </si>
-  <si>
-    <t>donc5699990</t>
-  </si>
-  <si>
-    <t>donc8999990</t>
+    <t>donc2399991</t>
+  </si>
+  <si>
+    <t>donc5699991</t>
+  </si>
+  <si>
+    <t>donc8999991</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A213D-A413-4591-9096-E416DD6A5CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517BE864-7887-453D-AD30-413EDD15E5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6975" yWindow="-8625" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc2399991</t>
-  </si>
-  <si>
-    <t>donc5699991</t>
-  </si>
-  <si>
-    <t>donc8999991</t>
+    <t>donc2399994</t>
+  </si>
+  <si>
+    <t>donc5699994</t>
+  </si>
+  <si>
+    <t>donc8999994</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517BE864-7887-453D-AD30-413EDD15E5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B41F6-D254-4FE7-821C-E16E3740426C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6975" yWindow="-8625" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc2399994</t>
-  </si>
-  <si>
-    <t>donc5699994</t>
-  </si>
-  <si>
-    <t>donc8999994</t>
+    <t>donc2399995</t>
+  </si>
+  <si>
+    <t>donc5699995</t>
+  </si>
+  <si>
+    <t>donc8999995</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B41F6-D254-4FE7-821C-E16E3740426C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E2AD3-E877-4248-A004-61A13EE83490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="-8625" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDataBatch16" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc2399995</t>
-  </si>
-  <si>
-    <t>donc5699995</t>
-  </si>
-  <si>
-    <t>donc8999995</t>
+    <t>donc399994</t>
+  </si>
+  <si>
+    <t>donc699994</t>
+  </si>
+  <si>
+    <t>donc999994</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E2AD3-E877-4248-A004-61A13EE83490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AFACAC-60C9-4A6F-A503-301A03DBFCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="-11985" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDataBatch16" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>donc399994</t>
-  </si>
-  <si>
-    <t>donc699994</t>
-  </si>
-  <si>
-    <t>donc999994</t>
+    <t>vanelly17</t>
+  </si>
+  <si>
+    <t>vanelly27</t>
+  </si>
+  <si>
+    <t>vanelly37</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AFACAC-60C9-4A6F-A503-301A03DBFCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DEA04A-4FC5-41EC-BACE-8EAA73CD2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="-11985" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDataBatch16" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>firstName</t>
   </si>
@@ -78,13 +78,10 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>vanelly17</t>
-  </si>
-  <si>
-    <t>vanelly27</t>
-  </si>
-  <si>
-    <t>vanelly37</t>
+    <t>1batch16id</t>
+  </si>
+  <si>
+    <t>Tim</t>
   </si>
 </sst>
 </file>
@@ -419,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -496,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -519,12 +516,35 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -534,8 +554,8 @@
     <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DEA04A-4FC5-41EC-BACE-8EAA73CD2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A6B759-3025-4636-B4E9-14BF1F19D7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Ivan</t>
   </si>
   <si>
-    <t>Don</t>
-  </si>
-  <si>
     <t>Serg</t>
   </si>
   <si>
@@ -78,10 +75,13 @@
     <t>Dan</t>
   </si>
   <si>
-    <t>1batch16id</t>
-  </si>
-  <si>
     <t>Tim</t>
+  </si>
+  <si>
+    <t>1_B16_ID</t>
+  </si>
+  <si>
+    <t>Aaabe</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -458,13 +458,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -481,13 +481,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -504,13 +504,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -541,10 +541,10 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -556,6 +556,8 @@
     <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{5DFF1FCB-BDF1-46F2-970F-CC7BECC0C97E}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{491A0059-99D5-491F-B71E-C113B8FC188B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A6B759-3025-4636-B4E9-14BF1F19D7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB4E93-71E3-4E1E-8866-1611B7132398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Hum@nhrm123</t>
   </si>
   <si>
-    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpg</t>
-  </si>
-  <si>
     <t>Ivan</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Aaabe</t>
+  </si>
+  <si>
+    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpeg</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -458,19 +458,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -481,19 +481,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -504,19 +504,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -527,19 +527,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB4E93-71E3-4E1E-8866-1611B7132398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABBCDA9-71CA-4FCB-8B9F-4ECAA2F06D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDataBatch16" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>Aaabe</t>
   </si>
   <si>
-    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpeg</t>
+    <t>C:\Users\magre\IdeaProjects\HRMSB16\Batch16.jpeg</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABBCDA9-71CA-4FCB-8B9F-4ECAA2F06D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB996FF-E4EE-46D5-86EE-12D12D925D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Aaabe</t>
   </si>
   <si>
-    <t>C:\Users\magre\IdeaProjects\HRMSB16\Batch16.jpeg</t>
+    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpeg</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB996FF-E4EE-46D5-86EE-12D12D925D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF1F15-8B48-4D18-8E85-7A9663E2D969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Aaabe</t>
   </si>
   <si>
-    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpeg</t>
+    <t>https://github.com/doncevan/HRMSB16/blob/d953506f74f7b7071cd8839f5892b8f11a77a554/src/test/resources/testdata/Batch16.jpeg</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="72.77734375" customWidth="1"/>
+    <col min="4" max="4" width="113.88671875" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
@@ -466,7 +466,7 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
@@ -489,7 +489,7 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
@@ -512,7 +512,7 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
@@ -535,7 +535,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
@@ -558,7 +558,12 @@
     <hyperlink ref="F4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="F5" r:id="rId7" xr:uid="{5DFF1FCB-BDF1-46F2-970F-CC7BECC0C97E}"/>
     <hyperlink ref="G5" r:id="rId8" xr:uid="{491A0059-99D5-491F-B71E-C113B8FC188B}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{DC0ABCBE-18C0-4E63-A500-AD40EF5DB3D1}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{D542DF6D-357E-485C-9693-28949F4D4542}"/>
+    <hyperlink ref="D4" r:id="rId11" xr:uid="{A9D8C6A5-CBE0-4940-BD4F-41234C7AA9EA}"/>
+    <hyperlink ref="D5" r:id="rId12" xr:uid="{DF23215C-866A-4FFA-956A-9019F5A88A2C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF1F15-8B48-4D18-8E85-7A9663E2D969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2502F0-B0FA-4D36-90D4-5FB5BCED8AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Aaabe</t>
   </si>
   <si>
-    <t>https://github.com/doncevan/HRMSB16/blob/d953506f74f7b7071cd8839f5892b8f11a77a554/src/test/resources/testdata/Batch16.jpeg</t>
+    <t>src/test/resources/testdata/Batch16.jpeg</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -558,12 +558,8 @@
     <hyperlink ref="F4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="F5" r:id="rId7" xr:uid="{5DFF1FCB-BDF1-46F2-970F-CC7BECC0C97E}"/>
     <hyperlink ref="G5" r:id="rId8" xr:uid="{491A0059-99D5-491F-B71E-C113B8FC188B}"/>
-    <hyperlink ref="D2" r:id="rId9" xr:uid="{DC0ABCBE-18C0-4E63-A500-AD40EF5DB3D1}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{D542DF6D-357E-485C-9693-28949F4D4542}"/>
-    <hyperlink ref="D4" r:id="rId11" xr:uid="{A9D8C6A5-CBE0-4940-BD4F-41234C7AA9EA}"/>
-    <hyperlink ref="D5" r:id="rId12" xr:uid="{DF23215C-866A-4FFA-956A-9019F5A88A2C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2502F0-B0FA-4D36-90D4-5FB5BCED8AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44174E1-FA4F-4BC4-82CB-69B38CBC16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Aaabe</t>
   </si>
   <si>
-    <t>src/test/resources/testdata/Batch16.jpeg</t>
+    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpeg</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44174E1-FA4F-4BC4-82CB-69B38CBC16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1893D52E-58B3-4227-98DF-19AB48BD7AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Aaabe</t>
   </si>
   <si>
-    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpeg</t>
+    <t>https://github.com/doncevan/HRMSB16/blob/main/src/test/resources/testdata/Batch16.jpeg</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="75.6640625" customWidth="1"/>
+    <col min="4" max="4" width="109.21875" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>

--- a/src/test/resources/testdata/batch16ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch16ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1893D52E-58B3-4227-98DF-19AB48BD7AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD446E-2566-4AE6-871A-189C6C49DA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Aaabe</t>
   </si>
   <si>
-    <t>https://github.com/doncevan/HRMSB16/blob/main/src/test/resources/testdata/Batch16.jpeg</t>
+    <t>C:\Users\magre\IdeaProjects\HRMSB16\src\test\resources\testdata\Batch16.jpeg</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
     <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="109.21875" customWidth="1"/>
+    <col min="4" max="4" width="74.21875" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
